--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -1,31 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TouhouTrek\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E36DB0-0110-4CC4-AA18-45AACD0BBA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26385" windowHeight="13470"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
     <sheet name="Deck" sheetId="2" r:id="rId2"/>
     <sheet name="Skill" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -74,6 +60,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>ZMDFQ.CampEnum</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -528,17 +517,19 @@
   </si>
   <si>
     <t>CR_CM001_SK1</t>
-  </si>
-  <si>
-    <t>ZMDFQ.CampEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,22 +538,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,8 +714,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -596,9 +909,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -618,6 +1173,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,21 +1185,62 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -928,26 +1527,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -984,7 +1583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1000,754 +1599,754 @@
       <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="2" customFormat="1" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>102</v>
       </c>
       <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>69</v>
       </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34">
         <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>108</v>
       </c>
       <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>77</v>
       </c>
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37">
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -1756,136 +2355,136 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>114</v>
       </c>
       <c r="D42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
         <v>84</v>
       </c>
-      <c r="E42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43">
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44">
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -1894,667 +2493,668 @@
         <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>120</v>
       </c>
       <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
         <v>91</v>
       </c>
-      <c r="E48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52">
         <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54">
         <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55">
         <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56">
         <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57">
         <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58">
         <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60">
         <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62">
         <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63">
         <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64">
         <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65">
         <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66">
         <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67">
         <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C68">
         <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69">
         <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70">
         <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C71">
         <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72">
         <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C73">
         <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74">
         <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C75">
         <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C76">
         <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:6">
       <c r="B77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C77">
         <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:6">
       <c r="B78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C78">
         <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F78">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2568,9 +3168,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2581,30 +3181,31 @@
       </c>
       <c r="E4" t="str">
         <f>_xlfn.TEXTJOIN(",",1,Card!F5:F103)</f>
-        <v>10,10,10,10,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,10,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,20,20</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,50,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,20,20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +3216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -2626,7 +3227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2637,85 +3238,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26385" windowHeight="13470"/>
+    <workbookView windowWidth="25485" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>类型</t>
   </si>
@@ -524,12 +524,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,13 +541,90 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,98 +661,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,7 +682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,7 +709,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,25 +781,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +805,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,49 +841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,19 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,49 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,6 +894,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -921,6 +947,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,71 +988,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1015,10 +1002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,133 +1014,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,7 +1160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1535,8 +1522,8 @@
   <sheetPr/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3085,7 +3072,7 @@
         <v>145</v>
       </c>
       <c r="F77">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="2:6">
@@ -3102,11 +3089,11 @@
         <v>145</v>
       </c>
       <c r="F78">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -3181,7 +3168,7 @@
       </c>
       <c r="E4" t="str">
         <f>_xlfn.TEXTJOIN(",",1,Card!F5:F103)</f>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,50,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,20,20</v>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,50,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,40,0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7880BFC9-CB2E-4CC5-B40F-6AD60A8781C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8CAA8D-8BF3-430E-8F24-A15AEE59A384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -128,9 +128,6 @@
     <t>造谣</t>
   </si>
   <si>
-    <t>AT_N009</t>
-  </si>
-  <si>
     <t>煽风点火</t>
   </si>
   <si>
@@ -531,6 +528,10 @@
   </si>
   <si>
     <t>ZMDFQ.CampEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT_D009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +938,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1001,7 +1002,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1153,17 +1154,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="B13" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1177,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -1197,13 +1195,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -1214,13 +1212,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -1234,13 +1232,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -1254,13 +1252,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>42</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -1274,13 +1272,13 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -1294,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1314,13 +1312,13 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -1334,13 +1332,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
@@ -1354,13 +1352,13 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
@@ -1371,13 +1369,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -1391,13 +1389,13 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -1411,13 +1409,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -1431,13 +1429,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
@@ -1451,33 +1449,33 @@
         <v>14</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>101</v>
       </c>
       <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
         <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
         <v>67</v>
-      </c>
-      <c r="H29" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1485,22 +1483,22 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1508,22 +1506,22 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1531,22 +1529,22 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1554,22 +1552,22 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1577,45 +1575,45 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
         <v>75</v>
-      </c>
-      <c r="H35" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1623,22 +1621,22 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1646,22 +1644,22 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1669,22 +1667,22 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1692,22 +1690,22 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1715,36 +1713,36 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -1753,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -1761,22 +1759,22 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -1784,22 +1782,22 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43">
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -1807,22 +1805,22 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -1830,22 +1828,22 @@
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -1853,36 +1851,36 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -1891,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -1899,22 +1897,22 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -1922,19 +1920,19 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -1942,22 +1940,22 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50">
         <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -1965,22 +1963,22 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51">
         <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -1988,22 +1986,22 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2014,16 +2012,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <v>125</v>
       </c>
       <c r="D54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" t="s">
         <v>96</v>
-      </c>
-      <c r="E54" t="s">
-        <v>97</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -2034,16 +2032,16 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55">
         <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2054,16 +2052,16 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56">
         <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2074,16 +2072,16 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57">
         <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2094,16 +2092,16 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58">
         <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2114,16 +2112,16 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59">
         <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2134,16 +2132,16 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2154,16 +2152,16 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61">
         <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2174,16 +2172,16 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62">
         <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2194,16 +2192,16 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63">
         <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2214,16 +2212,16 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64">
         <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2234,16 +2232,16 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65">
         <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2251,16 +2249,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C66">
         <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66">
         <v>10</v>
@@ -2271,16 +2269,16 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67">
         <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2291,16 +2289,16 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68">
         <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2311,16 +2309,16 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69">
         <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2331,16 +2329,16 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70">
         <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2351,16 +2349,16 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71">
         <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2371,16 +2369,16 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72">
         <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2391,16 +2389,16 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73">
         <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2411,16 +2409,16 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74">
         <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2431,16 +2429,16 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75">
         <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2451,16 +2449,16 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76">
         <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2468,16 +2466,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77">
         <v>148</v>
       </c>
       <c r="D77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" t="s">
         <v>143</v>
-      </c>
-      <c r="E77" t="s">
-        <v>144</v>
       </c>
       <c r="F77">
         <v>20</v>
@@ -2485,16 +2483,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78">
         <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F78">
         <v>20</v>
@@ -2522,30 +2520,30 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
         <v>148</v>
-      </c>
-      <c r="E1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
         <v>151</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
@@ -2564,7 +2562,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2633,7 +2631,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2644,68 +2642,68 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B9C22-42E7-4C19-98A7-84C48085C96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80130905-D5CD-494E-AE28-A4CE3776C655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2253,9 +2253,6 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>15</v>
-      </c>
       <c r="B66" t="s">
         <v>120</v>
       </c>
@@ -2509,7 +2506,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TouhouTrek\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B9C22-42E7-4C19-98A7-84C48085C96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26385" windowHeight="13470"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
     <sheet name="Deck" sheetId="2" r:id="rId2"/>
     <sheet name="Skill" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -131,6 +117,9 @@
     <t>造谣</t>
   </si>
   <si>
+    <t>AT_D009</t>
+  </si>
+  <si>
     <t>煽风点火</t>
   </si>
   <si>
@@ -528,17 +517,19 @@
   </si>
   <si>
     <t>CR_CM001_SK1</t>
-  </si>
-  <si>
-    <t>AT_D009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,22 +538,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,8 +707,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -596,13 +896,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,21 +1172,62 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -931,26 +1514,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -987,7 +1570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1007,13 +1590,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1047,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1064,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1081,10 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1118,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1158,15 +1738,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="9" t="s">
-        <v>166</v>
+    <row r="13" spans="2:6">
+      <c r="B13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1175,18 +1755,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1195,18 +1775,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1215,15 +1795,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1232,18 +1812,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1252,18 +1832,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1272,18 +1852,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -1292,18 +1872,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1312,18 +1892,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -1332,18 +1912,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -1352,18 +1932,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -1372,15 +1952,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1389,18 +1969,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -1409,18 +1989,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1429,18 +2009,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
@@ -1449,305 +2029,305 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="2" customFormat="1" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>102</v>
       </c>
       <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
         <v>69</v>
       </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34">
         <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>108</v>
       </c>
       <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>77</v>
       </c>
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37">
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -1756,136 +2336,136 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>114</v>
       </c>
       <c r="D42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
         <v>84</v>
       </c>
-      <c r="E42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43">
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44">
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -1894,667 +2474,665 @@
         <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>120</v>
       </c>
       <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
         <v>91</v>
       </c>
-      <c r="E48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52">
         <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54">
         <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55">
         <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56">
         <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57">
         <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58">
         <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60">
         <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62">
         <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63">
         <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64">
         <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65">
         <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>15</v>
-      </c>
+    <row r="66" spans="2:6">
       <c r="B66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66">
         <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67">
         <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C68">
         <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69">
         <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C70">
         <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C71">
         <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72">
         <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C73">
         <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74">
         <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C75">
         <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C76">
         <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:6">
       <c r="B77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C77">
         <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F77">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:6">
       <c r="B78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C78">
         <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2568,9 +3146,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2585,26 +3163,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +3194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -2626,7 +3205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2637,9 +3216,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2648,74 +3227,74 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80130905-D5CD-494E-AE28-A4CE3776C655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB94767-FC8D-4EA4-B178-0C08AA306FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="11685" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -152,9 +152,6 @@
     <t>出警</t>
   </si>
   <si>
-    <t>AT_N013</t>
-  </si>
-  <si>
     <t>众筹</t>
   </si>
   <si>
@@ -531,6 +528,10 @@
   </si>
   <si>
     <t>AT_D009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT_G013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1160,7 +1161,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1233,17 +1234,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="B17" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1257,13 +1255,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1277,13 +1275,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
         <v>44</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -1297,13 +1295,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1317,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -1337,13 +1335,13 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -1357,13 +1355,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -1374,13 +1372,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1394,13 +1392,13 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -1414,13 +1412,13 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1434,13 +1432,13 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
@@ -1454,33 +1452,33 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>101</v>
       </c>
       <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
         <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
         <v>67</v>
-      </c>
-      <c r="H29" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1488,22 +1486,22 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1511,22 +1509,22 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1534,22 +1532,22 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1557,22 +1555,22 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1580,45 +1578,45 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
         <v>75</v>
-      </c>
-      <c r="H35" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1626,22 +1624,22 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1649,22 +1647,22 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1672,22 +1670,22 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1695,22 +1693,22 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1718,36 +1716,36 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -1756,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -1764,22 +1762,22 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -1787,22 +1785,22 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43">
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -1810,22 +1808,22 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -1833,22 +1831,22 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -1856,36 +1854,36 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -1894,7 +1892,7 @@
         <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
@@ -1902,22 +1900,22 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -1925,19 +1923,19 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -1945,22 +1943,22 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50">
         <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -1968,22 +1966,22 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51">
         <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -1991,22 +1989,22 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2017,16 +2015,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <v>125</v>
       </c>
       <c r="D54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" t="s">
         <v>96</v>
-      </c>
-      <c r="E54" t="s">
-        <v>97</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -2037,16 +2035,16 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55">
         <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2057,16 +2055,16 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56">
         <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2077,16 +2075,16 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57">
         <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2097,16 +2095,16 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58">
         <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2117,16 +2115,16 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59">
         <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2137,16 +2135,16 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2157,16 +2155,16 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61">
         <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2177,16 +2175,16 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62">
         <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2197,16 +2195,16 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63">
         <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2217,16 +2215,16 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64">
         <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2237,16 +2235,16 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65">
         <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2254,16 +2252,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C66">
         <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2274,16 +2272,16 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67">
         <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2294,16 +2292,16 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68">
         <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2314,16 +2312,16 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69">
         <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2334,16 +2332,16 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70">
         <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2354,16 +2352,16 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71">
         <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2374,16 +2372,16 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72">
         <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2394,16 +2392,16 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73">
         <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2414,16 +2412,16 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74">
         <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2434,16 +2432,16 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75">
         <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2454,16 +2452,16 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76">
         <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2471,16 +2469,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77">
         <v>148</v>
       </c>
       <c r="D77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" t="s">
         <v>143</v>
-      </c>
-      <c r="E77" t="s">
-        <v>144</v>
       </c>
       <c r="F77">
         <v>40</v>
@@ -2488,16 +2486,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78">
         <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2525,30 +2523,30 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
         <v>148</v>
-      </c>
-      <c r="E1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
         <v>151</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
@@ -2567,7 +2565,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2636,7 +2634,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2647,62 +2645,62 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10">
         <v>7</v>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB94767-FC8D-4EA4-B178-0C08AA306FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6C2F86-3B43-48AA-85A6-AC2D1DB564CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="11685" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -941,7 +941,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1083,9 +1083,6 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6C2F86-3B43-48AA-85A6-AC2D1DB564CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0013A6-F6B5-4DC8-ADFB-85EBAAC5778B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="11685" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -941,7 +941,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,9 +1248,6 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\TouhouTrek\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Samples\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0013A6-F6B5-4DC8-ADFB-85EBAAC5778B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAFA4D5-0812-4455-9C07-68CA7CD33572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="11685" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1422,9 +1422,6 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Samples\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAFA4D5-0812-4455-9C07-68CA7CD33572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6A84D-B6D9-4D26-86FD-9917CDE54BA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="11685" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="22950" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1028,7 +1028,7 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1045,7 +1045,7 @@
         <v>18</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1062,7 +1062,7 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1079,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1113,7 +1113,7 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1170,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1227,7 +1227,7 @@
         <v>18</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1244,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1261,7 +1261,7 @@
         <v>18</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1378,7 +1378,7 @@
         <v>18</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1435,7 +1435,7 @@
         <v>18</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="E4" t="str">
         <f>_xlfn.TEXTJOIN(",",1,Card!F5:F103)</f>
-        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,50,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,40,0</v>
+        <v>5,5,3,3,6,3,0,0,5,0,0,5,1,1,0,0,0,0,0,3,0,0,1,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,40,0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Samples\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6A84D-B6D9-4D26-86FD-9917CDE54BA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0196D-7BC9-4B74-ACB8-FC33B7DCE4E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="22950" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,7 +941,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1113,7 +1113,7 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="E4" t="str">
         <f>_xlfn.TEXTJOIN(",",1,Card!F5:F103)</f>
-        <v>5,5,3,3,6,3,0,0,5,0,0,5,1,1,0,0,0,0,0,3,0,0,1,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,40,0</v>
+        <v>5,5,3,3,6,30,0,0,5,0,0,5,1,1,0,0,0,0,0,3,0,0,1,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,40,0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Samples\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0196D-7BC9-4B74-ACB8-FC33B7DCE4E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4097EB-D6A2-4A00-8E3C-FC87962B3DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="22950" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="182">
   <si>
     <t>类型</t>
   </si>
@@ -532,6 +532,63 @@
   </si>
   <si>
     <t>AT_G013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一张生效的事件牌效果中的社群规模和个人影响力偏移量+1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社群规模±2。</t>
+  </si>
+  <si>
+    <t>个人影响力+1。</t>
+  </si>
+  <si>
+    <t>抽两张行动牌。</t>
+  </si>
+  <si>
+    <t>指定玩家个人影响力-1，从该玩家开始，轮流弃一张牌使对方个人影响力-1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一名玩家并进行一次两点点数判定，判定结果为X，该玩家影响力-X，社群规模±X。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社群规模±1，选择一名玩家并给X张牌，你与其个人影响力+X。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃掉你手中的事件牌，从事件牌弃牌堆中选择选择一张事件牌放入手中，这张事件牌本回合必须打出且效果对其他玩家无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意玩家决定事件牌发生方向时使用，你的个人影响力-1，事件牌的发生方向逆转(不影响扣置发生的事件)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该牌视作上一张进入弃牌堆的的行动牌的复制。此牌结算完成后不进入弃牌堆，而是交给使用者的下一名玩家，并在下一个回合开始时加入该玩家手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一名玩家，你进行一次两点点数判定，该玩家个人影响力减少判定结果的数值。\n当其他玩家减少你的个人影响力时可以使用，该玩家的个人影响力减少相同的数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众筹：你成为众筹者，其他玩家可以弃置一张手牌成为众筹者。根据众筹者人数X，依次产生如下效果：\n一人：每位众筹者+1影响力；\n二人：社群规模±X；\n三人及以上：每位众筹者抽一张行动牌；\n若全部玩家成为众筹者，则众筹被叫停，不产生效果。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,6 +690,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -949,9 +1024,10 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="31.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -987,8 +1063,14 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1007,14 +1089,21 @@
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -1030,8 +1119,11 @@
       <c r="F5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J5" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1047,8 +1139,11 @@
       <c r="F6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J6" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1064,8 +1159,11 @@
       <c r="F7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J7" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1081,8 +1179,11 @@
       <c r="F8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J8" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1098,8 +1199,11 @@
       <c r="F9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J9" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1115,8 +1219,11 @@
       <c r="F10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J10" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1136,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1156,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
         <v>165</v>
       </c>
@@ -1172,8 +1279,11 @@
       <c r="F13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J13" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1193,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1213,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -1229,8 +1339,11 @@
       <c r="F16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J16" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
         <v>166</v>
       </c>
@@ -1246,8 +1359,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J17" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>41</v>
       </c>
@@ -1263,8 +1379,11 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J18" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1304,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1324,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1344,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1364,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -1380,8 +1499,11 @@
       <c r="F24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J24" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1401,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -1437,8 +1559,11 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J27" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -1448,8 +1573,9 @@
       <c r="H28" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>63</v>
       </c>
@@ -1472,7 +1598,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1495,7 +1621,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1518,7 +1644,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1909,7 +2035,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -1929,7 +2055,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -1952,7 +2078,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -1975,7 +2101,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1998,13 +2124,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>94</v>
       </c>
@@ -2021,7 +2148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2041,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -2061,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2081,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -2101,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2121,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -2141,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -2161,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -2181,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -2201,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>15</v>
       </c>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Samples\TouhouTrek\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4097EB-D6A2-4A00-8E3C-FC87962B3DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DFCD87-009B-4868-A47A-D147B80CD4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="22950" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1217,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>174</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="E4" t="str">
         <f>_xlfn.TEXTJOIN(",",1,Card!F5:F103)</f>
-        <v>5,5,3,3,6,30,0,0,5,0,0,5,1,1,0,0,0,0,0,3,0,0,1,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,40,0</v>
+        <v>5,5,3,3,6,3,0,0,5,0,0,5,1,1,0,0,0,0,0,3,0,0,1,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,40,0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Samples\TouhouTrek\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0196D-7BC9-4B74-ACB8-FC33B7DCE4E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="22950" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
     <sheet name="Deck" sheetId="2" r:id="rId2"/>
     <sheet name="Skill" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="167">
   <si>
     <t>类型</t>
   </si>
@@ -131,6 +117,9 @@
     <t>造谣</t>
   </si>
   <si>
+    <t>AT_D009</t>
+  </si>
+  <si>
     <t>煽风点火</t>
   </si>
   <si>
@@ -152,6 +141,9 @@
     <t>出警</t>
   </si>
   <si>
+    <t>AT_G013</t>
+  </si>
+  <si>
     <t>众筹</t>
   </si>
   <si>
@@ -525,21 +517,19 @@
   </si>
   <si>
     <t>CR_CM001_SK1</t>
-  </si>
-  <si>
-    <t>AT_D009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT_G013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,22 +538,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,8 +714,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -597,9 +909,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -625,27 +1179,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -932,26 +1530,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -988,7 +1586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1008,13 +1606,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -1031,7 +1629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1065,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1082,7 +1680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1099,7 +1697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1116,7 +1714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1136,10 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -1156,15 +1751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="9" t="s">
-        <v>165</v>
+    <row r="13" spans="2:6">
+      <c r="B13" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1173,18 +1768,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1193,18 +1788,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1213,15 +1808,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1230,15 +1825,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="9" t="s">
-        <v>166</v>
+    <row r="17" spans="2:6">
+      <c r="B17" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1247,15 +1842,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1264,18 +1859,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -1284,18 +1879,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1304,18 +1899,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -1324,18 +1919,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -1344,18 +1939,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -1364,15 +1959,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1381,18 +1976,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -1401,18 +1996,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1421,15 +2016,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
@@ -1438,305 +2033,305 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="2" customFormat="1" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>61</v>
+      <c r="G28" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
         <v>65</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
       </c>
       <c r="C31">
         <v>103</v>
       </c>
       <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>69</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
       </c>
       <c r="C32">
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
       </c>
       <c r="C33">
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
       </c>
       <c r="C34">
         <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
         <v>65</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>63</v>
       </c>
       <c r="C35">
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
         <v>65</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>63</v>
       </c>
       <c r="C37">
         <v>109</v>
       </c>
       <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
         <v>77</v>
       </c>
-      <c r="E37" t="s">
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
         <v>65</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
       </c>
       <c r="C38">
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
         <v>65</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
       </c>
       <c r="C39">
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
         <v>65</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
       </c>
       <c r="C40">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
         <v>65</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>63</v>
       </c>
       <c r="C41">
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -1745,136 +2340,136 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
         <v>65</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
       </c>
       <c r="C43">
         <v>115</v>
       </c>
       <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
         <v>84</v>
       </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
         <v>65</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
       </c>
       <c r="C44">
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
         <v>65</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
       </c>
       <c r="C45">
         <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
         <v>65</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
       </c>
       <c r="C46">
         <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
         <v>65</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>63</v>
       </c>
       <c r="C47">
         <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -1883,664 +2478,665 @@
         <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
         <v>65</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>63</v>
       </c>
       <c r="C49">
         <v>121</v>
       </c>
       <c r="E49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
         <v>65</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" t="s">
-        <v>63</v>
       </c>
       <c r="C50">
         <v>122</v>
       </c>
       <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
         <v>91</v>
       </c>
-      <c r="E50" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
         <v>65</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" t="s">
-        <v>63</v>
       </c>
       <c r="C51">
         <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
         <v>65</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" t="s">
-        <v>63</v>
       </c>
       <c r="C52">
         <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C54">
         <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C55">
         <v>126</v>
       </c>
       <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
         <v>98</v>
       </c>
-      <c r="E55" t="s">
-        <v>96</v>
-      </c>
       <c r="F55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C56">
         <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C57">
         <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C58">
         <v>129</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C60">
         <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C62">
         <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C63">
         <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C64">
         <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C65">
         <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:6">
       <c r="B66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C66">
         <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C67">
         <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C68">
         <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C69">
         <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C70">
         <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C71">
         <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C72">
         <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C73">
         <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C74">
         <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C75">
         <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C76">
         <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E76" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:6">
       <c r="B77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C77">
         <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F77">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:6">
       <c r="B78" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C78">
         <v>149</v>
       </c>
       <c r="D78" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" t="s">
         <v>145</v>
       </c>
-      <c r="E78" t="s">
-        <v>143</v>
-      </c>
       <c r="F78">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2554,9 +3150,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2571,26 +3167,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2601,7 +3198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -2612,7 +3209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2623,9 +3220,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2634,74 +3231,74 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Samples\TouhouTrek\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5099E1-8487-48D7-A148-C57FE41E19CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
     <sheet name="Deck" sheetId="2" r:id="rId2"/>
     <sheet name="Skill" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -522,14 +536,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,151 +553,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,194 +585,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -909,251 +594,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,61 +632,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1530,26 +929,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1606,13 +1005,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -1629,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1646,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1663,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1680,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1697,7 +1096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1711,10 +1110,10 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1734,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -1748,10 +1147,10 @@
         <v>18</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
@@ -1768,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1808,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1825,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>41</v>
       </c>
@@ -1842,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>43</v>
       </c>
@@ -1859,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1879,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1919,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1939,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1959,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -1976,7 +1375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2016,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>61</v>
       </c>
@@ -2033,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:8">
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -2044,7 +1443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -2067,7 +1466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2090,7 +1489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2113,7 +1512,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2136,7 +1535,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2159,7 +1558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2182,7 +1581,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>65</v>
       </c>
@@ -2205,7 +1604,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2228,7 +1627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2251,7 +1650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2274,7 +1673,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -2297,7 +1696,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2320,7 +1719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>65</v>
       </c>
@@ -2343,7 +1742,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2366,7 +1765,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2389,7 +1788,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2412,7 +1811,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -2435,7 +1834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -2458,7 +1857,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>65</v>
       </c>
@@ -2481,7 +1880,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2504,7 +1903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -2524,7 +1923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -2547,7 +1946,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2570,7 +1969,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2593,13 +1992,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:7">
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>96</v>
       </c>
@@ -2616,7 +2015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -2636,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -2656,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2676,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -2696,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2716,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -2736,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -2756,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -2776,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -2796,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -2816,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2836,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>121</v>
       </c>
@@ -2853,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2873,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2893,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2933,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2953,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -2973,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -2993,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -3013,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -3033,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -3053,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>143</v>
       </c>
@@ -3070,7 +2469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>146</v>
       </c>
@@ -3088,27 +2487,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>148</v>
       </c>
@@ -3122,7 +2520,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>151</v>
       </c>
@@ -3136,7 +2534,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3150,7 +2548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>154</v>
       </c>
@@ -3163,31 +2561,30 @@
       </c>
       <c r="E4" t="str">
         <f>_xlfn.TEXTJOIN(",",1,Card!F5:F103)</f>
-        <v>5,5,3,3,6,30,0,0,5,0,0,5,1,1,0,0,0,0,0,3,0,0,1,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,40,0</v>
+        <v>5,5,3,3,6,3,0,5,5,0,0,5,1,1,0,0,0,0,0,3,0,0,1,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,10,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,40,0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3198,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -3209,7 +2606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3220,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>155</v>
       </c>
@@ -3231,7 +2628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>156</v>
       </c>
@@ -3242,7 +2639,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>158</v>
       </c>
@@ -3253,7 +2650,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>160</v>
       </c>
@@ -3264,7 +2661,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>162</v>
       </c>
@@ -3275,7 +2672,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>164</v>
       </c>
@@ -3286,7 +2683,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>166</v>
       </c>
@@ -3298,7 +2695,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>